--- a/62. Portfolio_Variance_NLP.xlsx
+++ b/62. Portfolio_Variance_NLP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE0CE0-EC38-419F-BDA7-8565D3B29BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428E0226-AA1B-49B6-9581-55D9C7AA2774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BCAA415-49C3-4E56-A716-7362379235D9}"/>
   </bookViews>
